--- a/SkienAlgsListFinal.xlsx
+++ b/SkienAlgsListFinal.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://urfume-my.sharepoint.com/personal/sergey_osipov_urfu_me/Documents/AiSD2025/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1230" documentId="13_ncr:1_{BB64072A-02B6-4C3F-B1E2-71C6B558E3EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{40023E57-9A00-4F81-A25C-651315AAA906}"/>
+  <xr:revisionPtr revIDLastSave="1236" documentId="13_ncr:1_{BB64072A-02B6-4C3F-B1E2-71C6B558E3EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8C8AC003-D6AA-4A56-BADD-DBFAAF535DC4}"/>
   <bookViews>
-    <workbookView xWindow="6915" yWindow="1245" windowWidth="20595" windowHeight="14970" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5415" yWindow="930" windowWidth="20595" windowHeight="14970" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -1933,10 +1933,10 @@
   <dimension ref="A1:K1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D61" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A61" sqref="A61:E61"/>
+      <selection pane="bottomRight" activeCell="A51" sqref="A51:E51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3742,19 +3742,19 @@
       </c>
     </row>
     <row r="51" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="3" t="s">
+      <c r="A51" s="14" t="s">
         <v>186</v>
       </c>
-      <c r="B51" s="3" t="s">
+      <c r="B51" s="14" t="s">
         <v>155</v>
       </c>
-      <c r="C51" s="3" t="s">
+      <c r="C51" s="14" t="s">
         <v>187</v>
       </c>
-      <c r="D51" s="3">
+      <c r="D51" s="14">
         <v>268</v>
       </c>
-      <c r="E51" s="3">
+      <c r="E51" s="14">
         <v>31</v>
       </c>
       <c r="F51" s="17" t="s">

--- a/SkienAlgsListFinal.xlsx
+++ b/SkienAlgsListFinal.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://urfume-my.sharepoint.com/personal/sergey_osipov_urfu_me/Documents/AiSD2025/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1236" documentId="13_ncr:1_{BB64072A-02B6-4C3F-B1E2-71C6B558E3EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8C8AC003-D6AA-4A56-BADD-DBFAAF535DC4}"/>
+  <xr:revisionPtr revIDLastSave="1241" documentId="13_ncr:1_{BB64072A-02B6-4C3F-B1E2-71C6B558E3EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{52E0DE3F-A1D1-4E0B-A8DB-70F09B1A2028}"/>
   <bookViews>
-    <workbookView xWindow="5415" yWindow="930" windowWidth="20595" windowHeight="14970" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-270" yWindow="900" windowWidth="22080" windowHeight="12210" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -1933,10 +1933,10 @@
   <dimension ref="A1:K1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D8" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D33" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A51" sqref="A51:E51"/>
+      <selection pane="bottomRight" activeCell="C84" sqref="C84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
